--- a/my_Lost_Civilization_Season_1_Episode_1.xlsx
+++ b/my_Lost_Civilization_Season_1_Episode_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t xml:space="preserve">Zeitstempel</t>
   </si>
@@ -555,6 +555,24 @@
   </si>
   <si>
     <t xml:space="preserve">Erdbeben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2025_22.23.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de - en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hallo Zusammen ich habe viel gelernt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello everyone, I have learned a lot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de - fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonjour à tous, j'ai beaucoup appris.</t>
   </si>
 </sst>
 </file>
@@ -2566,6 +2584,46 @@
         <v>11</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>181</v>
+      </c>
+      <c r="B85" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" t="s">
+        <v>184</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" t="s">
+        <v>183</v>
+      </c>
+      <c r="D86" t="s">
+        <v>186</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/my_Lost_Civilization_Season_1_Episode_1.xlsx
+++ b/my_Lost_Civilization_Season_1_Episode_1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t xml:space="preserve">Zeitstempel</t>
   </si>
@@ -555,24 +555,6 @@
   </si>
   <si>
     <t xml:space="preserve">Erdbeben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.02.2025_22.23.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de - en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hallo Zusammen ich habe viel gelernt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hello everyone, I have learned a lot.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de - fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonjour à tous, j'ai beaucoup appris.</t>
   </si>
 </sst>
 </file>
@@ -2584,46 +2566,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>181</v>
-      </c>
-      <c r="B85" t="s">
-        <v>182</v>
-      </c>
-      <c r="C85" t="s">
-        <v>183</v>
-      </c>
-      <c r="D85" t="s">
-        <v>184</v>
-      </c>
-      <c r="E85" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>181</v>
-      </c>
-      <c r="B86" t="s">
-        <v>185</v>
-      </c>
-      <c r="C86" t="s">
-        <v>183</v>
-      </c>
-      <c r="D86" t="s">
-        <v>186</v>
-      </c>
-      <c r="E86" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
